--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.96109371835821</v>
+        <v>0.1162103333333333</v>
       </c>
       <c r="H2">
-        <v>0.96109371835821</v>
+        <v>0.348631</v>
       </c>
       <c r="I2">
-        <v>0.4340928410165579</v>
+        <v>0.04629488601196788</v>
       </c>
       <c r="J2">
-        <v>0.4340928410165579</v>
+        <v>0.04629488601196788</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N2">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O2">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P2">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q2">
-        <v>46.43365902647524</v>
+        <v>2.749525059317222</v>
       </c>
       <c r="R2">
-        <v>46.43365902647524</v>
+        <v>24.745725533855</v>
       </c>
       <c r="S2">
-        <v>0.4185871680975442</v>
+        <v>0.01387917877981041</v>
       </c>
       <c r="T2">
-        <v>0.4185871680975442</v>
+        <v>0.01387917877981041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,173 +596,917 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.96109371835821</v>
+        <v>0.1162103333333333</v>
       </c>
       <c r="H3">
-        <v>0.96109371835821</v>
+        <v>0.348631</v>
       </c>
       <c r="I3">
-        <v>0.4340928410165579</v>
+        <v>0.04629488601196788</v>
       </c>
       <c r="J3">
-        <v>0.4340928410165579</v>
+        <v>0.04629488601196788</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N3">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q3">
-        <v>1.720036313033257</v>
+        <v>0.008937233158555557</v>
       </c>
       <c r="R3">
-        <v>1.720036313033257</v>
+        <v>0.080435098427</v>
       </c>
       <c r="S3">
-        <v>0.01550567291901367</v>
+        <v>4.511377569886374E-05</v>
       </c>
       <c r="T3">
-        <v>0.01550567291901367</v>
+        <v>4.511377569886376E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.25293431331244</v>
+        <v>0.1162103333333333</v>
       </c>
       <c r="H4">
-        <v>1.25293431331244</v>
+        <v>0.348631</v>
       </c>
       <c r="I4">
-        <v>0.5659071589834421</v>
+        <v>0.04629488601196788</v>
       </c>
       <c r="J4">
-        <v>0.5659071589834421</v>
+        <v>0.04629488601196788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N4">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q4">
-        <v>60.53345638998032</v>
+        <v>6.184077610951445</v>
       </c>
       <c r="R4">
-        <v>60.53345638998032</v>
+        <v>55.656698498563</v>
       </c>
       <c r="S4">
-        <v>0.5456931160861284</v>
+        <v>0.03121627077366289</v>
       </c>
       <c r="T4">
-        <v>0.5456931160861284</v>
+        <v>0.03121627077366289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1162103333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.348631</v>
+      </c>
+      <c r="I5">
+        <v>0.04629488601196788</v>
+      </c>
+      <c r="J5">
+        <v>0.04629488601196788</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.903338</v>
+      </c>
+      <c r="O5">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P5">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q5">
+        <v>0.2286762922531111</v>
+      </c>
+      <c r="R5">
+        <v>2.058086630278</v>
+      </c>
+      <c r="S5">
+        <v>0.001154322682795715</v>
+      </c>
+      <c r="T5">
+        <v>0.001154322682795715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9837333333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.9512</v>
+      </c>
+      <c r="I6">
+        <v>0.391891333812884</v>
+      </c>
+      <c r="J6">
+        <v>0.3918913338128841</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N6">
+        <v>70.979705</v>
+      </c>
+      <c r="O6">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P6">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q6">
+        <v>23.27503393288889</v>
+      </c>
+      <c r="R6">
+        <v>209.475305396</v>
+      </c>
+      <c r="S6">
+        <v>0.1174887844597195</v>
+      </c>
+      <c r="T6">
+        <v>0.1174887844597195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9837333333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.9512</v>
+      </c>
+      <c r="I7">
+        <v>0.391891333812884</v>
+      </c>
+      <c r="J7">
+        <v>0.3918913338128841</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.230717</v>
+      </c>
+      <c r="O7">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P7">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q7">
+        <v>0.07565466782222222</v>
+      </c>
+      <c r="R7">
+        <v>0.6808920104</v>
+      </c>
+      <c r="S7">
+        <v>0.000381893104292179</v>
+      </c>
+      <c r="T7">
+        <v>0.0003818931042921792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9837333333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.9512</v>
+      </c>
+      <c r="I8">
+        <v>0.391891333812884</v>
+      </c>
+      <c r="J8">
+        <v>0.3918913338128841</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N8">
+        <v>159.643573</v>
+      </c>
+      <c r="O8">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P8">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q8">
+        <v>52.34890140417778</v>
+      </c>
+      <c r="R8">
+        <v>471.1401126376</v>
+      </c>
+      <c r="S8">
+        <v>0.2642491869834693</v>
+      </c>
+      <c r="T8">
+        <v>0.2642491869834694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9837333333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.9512</v>
+      </c>
+      <c r="I9">
+        <v>0.391891333812884</v>
+      </c>
+      <c r="J9">
+        <v>0.3918913338128841</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.903338</v>
+      </c>
+      <c r="O9">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P9">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q9">
+        <v>1.935770122844444</v>
+      </c>
+      <c r="R9">
+        <v>17.4219311056</v>
+      </c>
+      <c r="S9">
+        <v>0.009771469265402998</v>
+      </c>
+      <c r="T9">
+        <v>0.009771469265403001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02329033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.069871</v>
+      </c>
+      <c r="I10">
+        <v>0.009278205267294667</v>
+      </c>
+      <c r="J10">
+        <v>0.009278205267294668</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N10">
+        <v>70.979705</v>
+      </c>
+      <c r="O10">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P10">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q10">
+        <v>0.5510469964505555</v>
+      </c>
+      <c r="R10">
+        <v>4.959422968055</v>
+      </c>
+      <c r="S10">
+        <v>0.002781600318170595</v>
+      </c>
+      <c r="T10">
+        <v>0.002781600318170596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.25293431331244</v>
-      </c>
-      <c r="H5">
-        <v>1.25293431331244</v>
-      </c>
-      <c r="I5">
-        <v>0.5659071589834421</v>
-      </c>
-      <c r="J5">
-        <v>0.5659071589834421</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.78966554476239</v>
-      </c>
-      <c r="N5">
-        <v>1.78966554476239</v>
-      </c>
-      <c r="O5">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="P5">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="Q5">
-        <v>2.242333370385799</v>
-      </c>
-      <c r="R5">
-        <v>2.242333370385799</v>
-      </c>
-      <c r="S5">
-        <v>0.02021404289731381</v>
-      </c>
-      <c r="T5">
-        <v>0.02021404289731381</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02329033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.069871</v>
+      </c>
+      <c r="I11">
+        <v>0.009278205267294667</v>
+      </c>
+      <c r="J11">
+        <v>0.009278205267294668</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.230717</v>
+      </c>
+      <c r="O11">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P11">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q11">
+        <v>0.001791158611888889</v>
+      </c>
+      <c r="R11">
+        <v>0.016120427507</v>
+      </c>
+      <c r="S11">
+        <v>9.041492643669977E-06</v>
+      </c>
+      <c r="T11">
+        <v>9.041492643669982E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02329033333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.069871</v>
+      </c>
+      <c r="I12">
+        <v>0.009278205267294667</v>
+      </c>
+      <c r="J12">
+        <v>0.009278205267294668</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N12">
+        <v>159.643573</v>
+      </c>
+      <c r="O12">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P12">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q12">
+        <v>1.239384009898111</v>
+      </c>
+      <c r="R12">
+        <v>11.154456089083</v>
+      </c>
+      <c r="S12">
+        <v>0.006256219484861068</v>
+      </c>
+      <c r="T12">
+        <v>0.006256219484861071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02329033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.069871</v>
+      </c>
+      <c r="I13">
+        <v>0.009278205267294667</v>
+      </c>
+      <c r="J13">
+        <v>0.009278205267294668</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.903338</v>
+      </c>
+      <c r="O13">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P13">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q13">
+        <v>0.04583023659977778</v>
+      </c>
+      <c r="R13">
+        <v>0.412472129398</v>
+      </c>
+      <c r="S13">
+        <v>0.0002313439716193321</v>
+      </c>
+      <c r="T13">
+        <v>0.0002313439716193322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.386985666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.160957</v>
+      </c>
+      <c r="I14">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="J14">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N14">
+        <v>70.979705</v>
+      </c>
+      <c r="O14">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P14">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q14">
+        <v>32.81594448640944</v>
+      </c>
+      <c r="R14">
+        <v>295.343500377685</v>
+      </c>
+      <c r="S14">
+        <v>0.1656498306177694</v>
+      </c>
+      <c r="T14">
+        <v>0.1656498306177694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.386985666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.160957</v>
+      </c>
+      <c r="I15">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="J15">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.230717</v>
+      </c>
+      <c r="O15">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P15">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q15">
+        <v>0.1066670573521111</v>
+      </c>
+      <c r="R15">
+        <v>0.9600035161689999</v>
+      </c>
+      <c r="S15">
+        <v>0.0005384388674289348</v>
+      </c>
+      <c r="T15">
+        <v>0.0005384388674289349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.386985666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.160957</v>
+      </c>
+      <c r="I16">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="J16">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N16">
+        <v>159.643573</v>
+      </c>
+      <c r="O16">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P16">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q16">
+        <v>73.80778250881789</v>
+      </c>
+      <c r="R16">
+        <v>664.270042579361</v>
+      </c>
+      <c r="S16">
+        <v>0.3725703118471048</v>
+      </c>
+      <c r="T16">
+        <v>0.3725703118471049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.386985666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.160957</v>
+      </c>
+      <c r="I17">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="J17">
+        <v>0.5525355749078533</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.903338</v>
+      </c>
+      <c r="O17">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P17">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q17">
+        <v>2.729281730496222</v>
+      </c>
+      <c r="R17">
+        <v>24.563535574466</v>
+      </c>
+      <c r="S17">
+        <v>0.0137769935755501</v>
+      </c>
+      <c r="T17">
+        <v>0.01377699357555011</v>
       </c>
     </row>
   </sheetData>
